--- a/testresults.xlsx
+++ b/testresults.xlsx
@@ -344,7 +344,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="560">
+  <x:cellStyleXfs count="1308">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -404,6 +404,2250 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2462,34 +4706,34 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C6" s="14" t="n">
-        <x:v>0.4034</x:v>
+        <x:v>0.0997</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>0.0805</x:v>
+        <x:v>5.8651</x:v>
       </x:c>
       <x:c r="E6" s="15" t="n">
-        <x:v>5.0296</x:v>
+        <x:v>380.4823</x:v>
       </x:c>
       <x:c r="F6" s="15" t="n">
-        <x:v>320.7851</x:v>
+        <x:v>84.3104</x:v>
       </x:c>
       <x:c r="G6" s="15" t="n">
-        <x:v>21437.1354</x:v>
+        <x:v>4805.6155</x:v>
       </x:c>
       <x:c r="H6" s="15" t="n">
-        <x:v>324.1835</x:v>
+        <x:v>87.7594</x:v>
       </x:c>
       <x:c r="I6" s="15" t="n">
-        <x:v>21032.2888</x:v>
+        <x:v>4867.4045</x:v>
       </x:c>
       <x:c r="J6" s="15" t="n">
-        <x:v>1.0686</x:v>
+        <x:v>0.075</x:v>
       </x:c>
       <x:c r="K6" s="15" t="n">
-        <x:v>45.8911</x:v>
+        <x:v>1.3156</x:v>
       </x:c>
       <x:c r="L6" s="15" t="n">
-        <x:v>2911.625</x:v>
+        <x:v>83.0281</x:v>
       </x:c>
       <x:c r="M6" s="21" t="s"/>
       <x:c r="N6" s="21" t="s"/>
@@ -2499,34 +4743,34 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="16" t="n">
-        <x:v>0.4034</x:v>
+        <x:v>2.3252</x:v>
       </x:c>
       <x:c r="D7" s="13" t="n">
-        <x:v>0.0805</x:v>
+        <x:v>12.015</x:v>
       </x:c>
       <x:c r="E7" s="13" t="n">
-        <x:v>5.0296</x:v>
+        <x:v>501.5867</x:v>
       </x:c>
       <x:c r="F7" s="13" t="n">
-        <x:v>320.7851</x:v>
+        <x:v>394.6542</x:v>
       </x:c>
       <x:c r="G7" s="13" t="n">
-        <x:v>21437.1354</x:v>
+        <x:v>8496.1235</x:v>
       </x:c>
       <x:c r="H7" s="13" t="n">
-        <x:v>324.1835</x:v>
+        <x:v>252.9376</x:v>
       </x:c>
       <x:c r="I7" s="13" t="n">
-        <x:v>21032.2888</x:v>
+        <x:v>19919.5986</x:v>
       </x:c>
       <x:c r="J7" s="13" t="n">
-        <x:v>1.0686</x:v>
+        <x:v>12.0131</x:v>
       </x:c>
       <x:c r="K7" s="13" t="n">
-        <x:v>45.8911</x:v>
+        <x:v>3.6216</x:v>
       </x:c>
       <x:c r="L7" s="13" t="n">
-        <x:v>2911.625</x:v>
+        <x:v>119.5993</x:v>
       </x:c>
       <x:c r="M7" s="21" t="s"/>
       <x:c r="N7" s="21" t="s"/>
@@ -2537,34 +4781,34 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C8" s="18" t="n">
-        <x:v>0.4034</x:v>
+        <x:v>0.1897</x:v>
       </x:c>
       <x:c r="D8" s="17" t="n">
-        <x:v>0.0805</x:v>
+        <x:v>7.0878</x:v>
       </x:c>
       <x:c r="E8" s="17" t="n">
-        <x:v>5.0296</x:v>
+        <x:v>406.2596</x:v>
       </x:c>
       <x:c r="F8" s="17" t="n">
-        <x:v>320.7851</x:v>
+        <x:v>202.1156</x:v>
       </x:c>
       <x:c r="G8" s="17" t="n">
-        <x:v>21437.1354</x:v>
+        <x:v>5186.722</x:v>
       </x:c>
       <x:c r="H8" s="17" t="n">
-        <x:v>324.1835</x:v>
+        <x:v>112.5545</x:v>
       </x:c>
       <x:c r="I8" s="17" t="n">
-        <x:v>21032.2888</x:v>
+        <x:v>12924.9467</x:v>
       </x:c>
       <x:c r="J8" s="17" t="n">
-        <x:v>1.0686</x:v>
+        <x:v>0.2519</x:v>
       </x:c>
       <x:c r="K8" s="17" t="n">
-        <x:v>45.8911</x:v>
+        <x:v>1.4978</x:v>
       </x:c>
       <x:c r="L8" s="17" t="n">
-        <x:v>2911.625</x:v>
+        <x:v>92.423</x:v>
       </x:c>
       <x:c r="M8" s="21" t="s"/>
       <x:c r="N8" s="21" t="s"/>
@@ -2659,34 +4903,34 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C15" s="14" t="n">
-        <x:v>27.1042</x:v>
+        <x:v>0.0981</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
-        <x:v>11.3999</x:v>
+        <x:v>4.001</x:v>
       </x:c>
       <x:c r="E15" s="15" t="n">
-        <x:v>415.181</x:v>
+        <x:v>240.0238</x:v>
       </x:c>
       <x:c r="F15" s="15" t="n">
-        <x:v>126.0446</x:v>
+        <x:v>384.7777</x:v>
       </x:c>
       <x:c r="G15" s="15" t="n">
-        <x:v>6041.5992</x:v>
+        <x:v>22749.5104</x:v>
       </x:c>
       <x:c r="H15" s="15" t="n">
-        <x:v>134.2552</x:v>
+        <x:v>417.5791</x:v>
       </x:c>
       <x:c r="I15" s="15" t="n">
-        <x:v>6153.7361</x:v>
+        <x:v>19739.8768</x:v>
       </x:c>
       <x:c r="J15" s="15" t="n">
-        <x:v>0.5506</x:v>
+        <x:v>0.1298</x:v>
       </x:c>
       <x:c r="K15" s="15" t="n">
-        <x:v>21.1519</x:v>
+        <x:v>5.1669</x:v>
       </x:c>
       <x:c r="L15" s="15" t="n">
-        <x:v>1178.6306</x:v>
+        <x:v>318.1035</x:v>
       </x:c>
       <x:c r="M15" s="21" t="s"/>
       <x:c r="N15" s="21" t="s"/>
@@ -2696,34 +4940,34 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C16" s="16" t="n">
-        <x:v>27.1042</x:v>
+        <x:v>1.6392</x:v>
       </x:c>
       <x:c r="D16" s="13" t="n">
-        <x:v>11.3999</x:v>
+        <x:v>5.9491</x:v>
       </x:c>
       <x:c r="E16" s="13" t="n">
-        <x:v>415.181</x:v>
+        <x:v>275.6325</x:v>
       </x:c>
       <x:c r="F16" s="13" t="n">
-        <x:v>126.0446</x:v>
+        <x:v>586.1245</x:v>
       </x:c>
       <x:c r="G16" s="13" t="n">
-        <x:v>6041.5992</x:v>
+        <x:v>26589.9999</x:v>
       </x:c>
       <x:c r="H16" s="13" t="n">
-        <x:v>134.2552</x:v>
+        <x:v>596.9532</x:v>
       </x:c>
       <x:c r="I16" s="13" t="n">
-        <x:v>6153.7361</x:v>
+        <x:v>26054.5055</x:v>
       </x:c>
       <x:c r="J16" s="13" t="n">
-        <x:v>0.5506</x:v>
+        <x:v>0.2902</x:v>
       </x:c>
       <x:c r="K16" s="13" t="n">
-        <x:v>21.1519</x:v>
+        <x:v>5.8962</x:v>
       </x:c>
       <x:c r="L16" s="13" t="n">
-        <x:v>1178.6306</x:v>
+        <x:v>356.2735</x:v>
       </x:c>
       <x:c r="M16" s="21" t="s"/>
       <x:c r="N16" s="21" t="s"/>
@@ -2733,34 +4977,34 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C17" s="18" t="n">
-        <x:v>27.1042</x:v>
+        <x:v>0.1368</x:v>
       </x:c>
       <x:c r="D17" s="17" t="n">
-        <x:v>11.3999</x:v>
+        <x:v>4.2322</x:v>
       </x:c>
       <x:c r="E17" s="17" t="n">
-        <x:v>415.181</x:v>
+        <x:v>244.8431</x:v>
       </x:c>
       <x:c r="F17" s="17" t="n">
-        <x:v>126.0446</x:v>
+        <x:v>517.8285</x:v>
       </x:c>
       <x:c r="G17" s="17" t="n">
-        <x:v>6041.5992</x:v>
+        <x:v>25364.8043</x:v>
       </x:c>
       <x:c r="H17" s="17" t="n">
-        <x:v>134.2552</x:v>
+        <x:v>524.8</x:v>
       </x:c>
       <x:c r="I17" s="17" t="n">
-        <x:v>6153.7361</x:v>
+        <x:v>25036.1966</x:v>
       </x:c>
       <x:c r="J17" s="17" t="n">
-        <x:v>0.5506</x:v>
+        <x:v>0.1616</x:v>
       </x:c>
       <x:c r="K17" s="17" t="n">
-        <x:v>21.1519</x:v>
+        <x:v>5.4353</x:v>
       </x:c>
       <x:c r="L17" s="17" t="n">
-        <x:v>1178.6306</x:v>
+        <x:v>321.7277</x:v>
       </x:c>
       <x:c r="M17" s="21" t="s"/>
       <x:c r="N17" s="21" t="s"/>
@@ -2855,34 +5099,34 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C24" s="14" t="n">
-        <x:v>0.6879</x:v>
+        <x:v>0.1331</x:v>
       </x:c>
       <x:c r="D24" s="15" t="n">
-        <x:v>10.3761</x:v>
+        <x:v>5.5184</x:v>
       </x:c>
       <x:c r="E24" s="15" t="n">
-        <x:v>600.4604</x:v>
+        <x:v>289.4629</x:v>
       </x:c>
       <x:c r="F24" s="15" t="n">
-        <x:v>165.5309</x:v>
+        <x:v>606.279</x:v>
       </x:c>
       <x:c r="G24" s="15" t="n">
-        <x:v>8892.2492</x:v>
+        <x:v>33011.4582</x:v>
       </x:c>
       <x:c r="H24" s="15" t="n">
-        <x:v>163.873</x:v>
+        <x:v>563.9161</x:v>
       </x:c>
       <x:c r="I24" s="15" t="n">
-        <x:v>9564.19</x:v>
+        <x:v>28967.0482</x:v>
       </x:c>
       <x:c r="J24" s="15" t="n">
-        <x:v>0.6356</x:v>
+        <x:v>0.1661</x:v>
       </x:c>
       <x:c r="K24" s="15" t="n">
-        <x:v>29.1543</x:v>
+        <x:v>8.3886</x:v>
       </x:c>
       <x:c r="L24" s="15" t="n">
-        <x:v>1377.2984</x:v>
+        <x:v>376.7227</x:v>
       </x:c>
       <x:c r="M24" s="21" t="s"/>
       <x:c r="N24" s="21" t="s"/>
@@ -2892,34 +5136,34 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C25" s="16" t="n">
-        <x:v>0.6879</x:v>
+        <x:v>0.4932</x:v>
       </x:c>
       <x:c r="D25" s="13" t="n">
-        <x:v>10.3761</x:v>
+        <x:v>13.2642</x:v>
       </x:c>
       <x:c r="E25" s="13" t="n">
-        <x:v>600.4604</x:v>
+        <x:v>659.418</x:v>
       </x:c>
       <x:c r="F25" s="13" t="n">
-        <x:v>165.5309</x:v>
+        <x:v>880.4439</x:v>
       </x:c>
       <x:c r="G25" s="13" t="n">
-        <x:v>8892.2492</x:v>
+        <x:v>41541.1946</x:v>
       </x:c>
       <x:c r="H25" s="13" t="n">
-        <x:v>163.873</x:v>
+        <x:v>902.3168</x:v>
       </x:c>
       <x:c r="I25" s="13" t="n">
-        <x:v>9564.19</x:v>
+        <x:v>41269.2379</x:v>
       </x:c>
       <x:c r="J25" s="13" t="n">
-        <x:v>0.6356</x:v>
+        <x:v>0.515</x:v>
       </x:c>
       <x:c r="K25" s="13" t="n">
-        <x:v>29.1543</x:v>
+        <x:v>11.4226</x:v>
       </x:c>
       <x:c r="L25" s="13" t="n">
-        <x:v>1377.2984</x:v>
+        <x:v>570.3727</x:v>
       </x:c>
       <x:c r="M25" s="21" t="s"/>
       <x:c r="N25" s="21" t="s"/>
@@ -2929,34 +5173,34 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C26" s="18" t="n">
-        <x:v>0.6879</x:v>
+        <x:v>0.1575</x:v>
       </x:c>
       <x:c r="D26" s="17" t="n">
-        <x:v>10.3761</x:v>
+        <x:v>7.3706</x:v>
       </x:c>
       <x:c r="E26" s="17" t="n">
-        <x:v>600.4604</x:v>
+        <x:v>411.8912</x:v>
       </x:c>
       <x:c r="F26" s="17" t="n">
-        <x:v>165.5309</x:v>
+        <x:v>743.5757</x:v>
       </x:c>
       <x:c r="G26" s="17" t="n">
-        <x:v>8892.2492</x:v>
+        <x:v>38068.5605</x:v>
       </x:c>
       <x:c r="H26" s="17" t="n">
-        <x:v>163.873</x:v>
+        <x:v>767.5396</x:v>
       </x:c>
       <x:c r="I26" s="17" t="n">
-        <x:v>9564.19</x:v>
+        <x:v>31519.9023</x:v>
       </x:c>
       <x:c r="J26" s="17" t="n">
-        <x:v>0.6356</x:v>
+        <x:v>0.224</x:v>
       </x:c>
       <x:c r="K26" s="17" t="n">
-        <x:v>29.1543</x:v>
+        <x:v>9.4559</x:v>
       </x:c>
       <x:c r="L26" s="17" t="n">
-        <x:v>1377.2984</x:v>
+        <x:v>500.1096</x:v>
       </x:c>
       <x:c r="M26" s="21" t="s"/>
       <x:c r="N26" s="21" t="s"/>
@@ -3051,34 +5295,34 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C33" s="14" t="n">
-        <x:v>0.9942</x:v>
+        <x:v>0.0673</x:v>
       </x:c>
       <x:c r="D33" s="15" t="n">
-        <x:v>6.9892</x:v>
+        <x:v>3.8737</x:v>
       </x:c>
       <x:c r="E33" s="15" t="n">
-        <x:v>430.6824</x:v>
+        <x:v>245.4617</x:v>
       </x:c>
       <x:c r="F33" s="15" t="n">
-        <x:v>86.1122</x:v>
+        <x:v>299.8371</x:v>
       </x:c>
       <x:c r="G33" s="15" t="n">
-        <x:v>5828.2184</x:v>
+        <x:v>5087.8797</x:v>
       </x:c>
       <x:c r="H33" s="15" t="n">
-        <x:v>99.0526</x:v>
+        <x:v>303.0726</x:v>
       </x:c>
       <x:c r="I33" s="15" t="n">
-        <x:v>5832.2076</x:v>
+        <x:v>3048.5192</x:v>
       </x:c>
       <x:c r="J33" s="15" t="n">
-        <x:v>0.5295</x:v>
+        <x:v>0.0869</x:v>
       </x:c>
       <x:c r="K33" s="15" t="n">
-        <x:v>22.4348</x:v>
+        <x:v>5.1069</x:v>
       </x:c>
       <x:c r="L33" s="15" t="n">
-        <x:v>1207.9794</x:v>
+        <x:v>322.3951</x:v>
       </x:c>
       <x:c r="M33" s="21" t="s"/>
       <x:c r="N33" s="21" t="s"/>
@@ -3088,34 +5332,34 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C34" s="16" t="n">
-        <x:v>0.9942</x:v>
+        <x:v>0.8544</x:v>
       </x:c>
       <x:c r="D34" s="13" t="n">
-        <x:v>6.9892</x:v>
+        <x:v>4.3227</x:v>
       </x:c>
       <x:c r="E34" s="13" t="n">
-        <x:v>430.6824</x:v>
+        <x:v>276.1957</x:v>
       </x:c>
       <x:c r="F34" s="13" t="n">
-        <x:v>86.1122</x:v>
+        <x:v>395.8399</x:v>
       </x:c>
       <x:c r="G34" s="13" t="n">
-        <x:v>5828.2184</x:v>
+        <x:v>24868.136</x:v>
       </x:c>
       <x:c r="H34" s="13" t="n">
-        <x:v>99.0526</x:v>
+        <x:v>450.2942</x:v>
       </x:c>
       <x:c r="I34" s="13" t="n">
-        <x:v>5832.2076</x:v>
+        <x:v>20221.0503</x:v>
       </x:c>
       <x:c r="J34" s="13" t="n">
-        <x:v>0.5295</x:v>
+        <x:v>0.3107</x:v>
       </x:c>
       <x:c r="K34" s="13" t="n">
-        <x:v>22.4348</x:v>
+        <x:v>11.1568</x:v>
       </x:c>
       <x:c r="L34" s="13" t="n">
-        <x:v>1207.9794</x:v>
+        <x:v>358.1728</x:v>
       </x:c>
       <x:c r="M34" s="21" t="s"/>
       <x:c r="N34" s="21" t="s"/>
@@ -3125,34 +5369,34 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C35" s="18" t="n">
-        <x:v>0.9942</x:v>
+        <x:v>0.0866</x:v>
       </x:c>
       <x:c r="D35" s="17" t="n">
-        <x:v>6.9892</x:v>
+        <x:v>3.9164</x:v>
       </x:c>
       <x:c r="E35" s="17" t="n">
-        <x:v>430.6824</x:v>
+        <x:v>249.9326</x:v>
       </x:c>
       <x:c r="F35" s="17" t="n">
-        <x:v>86.1122</x:v>
+        <x:v>365.1621</x:v>
       </x:c>
       <x:c r="G35" s="17" t="n">
-        <x:v>5828.2184</x:v>
+        <x:v>22457.3922</x:v>
       </x:c>
       <x:c r="H35" s="17" t="n">
-        <x:v>99.0526</x:v>
+        <x:v>374.2856</x:v>
       </x:c>
       <x:c r="I35" s="17" t="n">
-        <x:v>5832.2076</x:v>
+        <x:v>17801.5153</x:v>
       </x:c>
       <x:c r="J35" s="17" t="n">
-        <x:v>0.5295</x:v>
+        <x:v>0.0973</x:v>
       </x:c>
       <x:c r="K35" s="17" t="n">
-        <x:v>22.4348</x:v>
+        <x:v>5.2232</x:v>
       </x:c>
       <x:c r="L35" s="17" t="n">
-        <x:v>1207.9794</x:v>
+        <x:v>327.7669</x:v>
       </x:c>
       <x:c r="M35" s="21" t="s"/>
       <x:c r="N35" s="21" t="s"/>
@@ -3247,34 +5491,34 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C42" s="14" t="n">
-        <x:v>3.2496</x:v>
+        <x:v>0.0269</x:v>
       </x:c>
       <x:c r="D42" s="15" t="n">
-        <x:v>0.3771</x:v>
+        <x:v>0.04</x:v>
       </x:c>
       <x:c r="E42" s="15" t="n">
-        <x:v>2.2024</x:v>
+        <x:v>0.4121</x:v>
       </x:c>
       <x:c r="F42" s="15" t="n">
-        <x:v>86.6112</x:v>
+        <x:v>255.5169</x:v>
       </x:c>
       <x:c r="G42" s="15" t="n">
-        <x:v>5791.7421</x:v>
+        <x:v>5087.3826</x:v>
       </x:c>
       <x:c r="H42" s="15" t="n">
-        <x:v>100.2126</x:v>
+        <x:v>242.716</x:v>
       </x:c>
       <x:c r="I42" s="15" t="n">
-        <x:v>5796.7557</x:v>
+        <x:v>3027.5892</x:v>
       </x:c>
       <x:c r="J42" s="15" t="n">
-        <x:v>0.4897</x:v>
+        <x:v>0.0702</x:v>
       </x:c>
       <x:c r="K42" s="15" t="n">
-        <x:v>22.5855</x:v>
+        <x:v>1.3521</x:v>
       </x:c>
       <x:c r="L42" s="15" t="n">
-        <x:v>819.6531</x:v>
+        <x:v>84.3777</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -3282,34 +5526,34 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C43" s="16" t="n">
-        <x:v>3.2496</x:v>
+        <x:v>2.3951</x:v>
       </x:c>
       <x:c r="D43" s="13" t="n">
-        <x:v>0.3771</x:v>
+        <x:v>0.1119</x:v>
       </x:c>
       <x:c r="E43" s="13" t="n">
-        <x:v>2.2024</x:v>
+        <x:v>0.7315</x:v>
       </x:c>
       <x:c r="F43" s="13" t="n">
-        <x:v>86.6112</x:v>
+        <x:v>396.6732</x:v>
       </x:c>
       <x:c r="G43" s="13" t="n">
-        <x:v>5791.7421</x:v>
+        <x:v>24963.3996</x:v>
       </x:c>
       <x:c r="H43" s="13" t="n">
-        <x:v>100.2126</x:v>
+        <x:v>430.9175</x:v>
       </x:c>
       <x:c r="I43" s="13" t="n">
-        <x:v>5796.7557</x:v>
+        <x:v>19702.821</x:v>
       </x:c>
       <x:c r="J43" s="13" t="n">
-        <x:v>0.4897</x:v>
+        <x:v>0.8736</x:v>
       </x:c>
       <x:c r="K43" s="13" t="n">
-        <x:v>22.5855</x:v>
+        <x:v>2.6998</x:v>
       </x:c>
       <x:c r="L43" s="13" t="n">
-        <x:v>819.6531</x:v>
+        <x:v>115.8051</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3317,34 +5561,34 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C44" s="18" t="n">
-        <x:v>3.2496</x:v>
+        <x:v>0.0573</x:v>
       </x:c>
       <x:c r="D44" s="17" t="n">
-        <x:v>0.3771</x:v>
+        <x:v>0.0456</x:v>
       </x:c>
       <x:c r="E44" s="17" t="n">
-        <x:v>2.2024</x:v>
+        <x:v>0.4236</x:v>
       </x:c>
       <x:c r="F44" s="17" t="n">
-        <x:v>86.6112</x:v>
+        <x:v>365.8017</x:v>
       </x:c>
       <x:c r="G44" s="17" t="n">
-        <x:v>5791.7421</x:v>
+        <x:v>21565.2913</x:v>
       </x:c>
       <x:c r="H44" s="17" t="n">
-        <x:v>100.2126</x:v>
+        <x:v>385.8104</x:v>
       </x:c>
       <x:c r="I44" s="17" t="n">
-        <x:v>5796.7557</x:v>
+        <x:v>3942.7506</x:v>
       </x:c>
       <x:c r="J44" s="17" t="n">
-        <x:v>0.4897</x:v>
+        <x:v>0.0942</x:v>
       </x:c>
       <x:c r="K44" s="17" t="n">
-        <x:v>22.5855</x:v>
+        <x:v>1.5428</x:v>
       </x:c>
       <x:c r="L44" s="17" t="n">
-        <x:v>819.6531</x:v>
+        <x:v>90.228</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:16" x14ac:dyDescent="0.25">

--- a/testresults.xlsx
+++ b/testresults.xlsx
@@ -344,7 +344,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1891">
+  <x:cellStyleXfs count="2210">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -404,6 +404,963 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6455,34 +7412,34 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C6" s="14" t="n">
-        <x:v>0.0002</x:v>
+        <x:v>0.0003</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>0.0151</x:v>
+        <x:v>0.0221</x:v>
       </x:c>
       <x:c r="E6" s="15" t="n">
-        <x:v>0.9079</x:v>
+        <x:v>1.397</x:v>
       </x:c>
       <x:c r="F6" s="15" t="n">
-        <x:v>1586.1087</x:v>
+        <x:v>262.0617</x:v>
       </x:c>
       <x:c r="G6" s="15" t="n">
-        <x:v>115452.0911</x:v>
+        <x:v>18392.8597</x:v>
       </x:c>
       <x:c r="H6" s="15" t="n">
-        <x:v>1568.0843</x:v>
+        <x:v>287.1864</x:v>
       </x:c>
       <x:c r="I6" s="15" t="n">
-        <x:v>120297.2121</x:v>
+        <x:v>19123.4059</x:v>
       </x:c>
       <x:c r="J6" s="15" t="n">
-        <x:v>0.0549</x:v>
+        <x:v>0.0692</x:v>
       </x:c>
       <x:c r="K6" s="15" t="n">
-        <x:v>3.7289</x:v>
+        <x:v>4.7137</x:v>
       </x:c>
       <x:c r="L6" s="15" t="n">
-        <x:v>240.6358</x:v>
+        <x:v>319.8598</x:v>
       </x:c>
       <x:c r="M6" s="21" t="s"/>
       <x:c r="N6" s="21" t="s"/>
@@ -6492,34 +7449,34 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="16" t="n">
-        <x:v>0.2931</x:v>
+        <x:v>0.4005</x:v>
       </x:c>
       <x:c r="D7" s="13" t="n">
-        <x:v>0.0461</x:v>
+        <x:v>0.023</x:v>
       </x:c>
       <x:c r="E7" s="13" t="n">
-        <x:v>0.9363</x:v>
+        <x:v>1.568</x:v>
       </x:c>
       <x:c r="F7" s="13" t="n">
-        <x:v>1919.5834</x:v>
+        <x:v>304.4829</x:v>
       </x:c>
       <x:c r="G7" s="13" t="n">
-        <x:v>124344.0011</x:v>
+        <x:v>24381.0056</x:v>
       </x:c>
       <x:c r="H7" s="13" t="n">
-        <x:v>2002.7245</x:v>
+        <x:v>515.4821</x:v>
       </x:c>
       <x:c r="I7" s="13" t="n">
-        <x:v>125350.8842</x:v>
+        <x:v>24382.1737</x:v>
       </x:c>
       <x:c r="J7" s="13" t="n">
-        <x:v>0.1788</x:v>
+        <x:v>0.5927</x:v>
       </x:c>
       <x:c r="K7" s="13" t="n">
-        <x:v>3.8096</x:v>
+        <x:v>6.2564</x:v>
       </x:c>
       <x:c r="L7" s="13" t="n">
-        <x:v>242.4684</x:v>
+        <x:v>332.8322</x:v>
       </x:c>
       <x:c r="M7" s="21" t="s"/>
       <x:c r="N7" s="21" t="s"/>
@@ -6530,34 +7487,34 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C8" s="18" t="n">
-        <x:v>0.0031</x:v>
+        <x:v>0.0043</x:v>
       </x:c>
       <x:c r="D8" s="17" t="n">
-        <x:v>0.0157</x:v>
+        <x:v>0.0224</x:v>
       </x:c>
       <x:c r="E8" s="17" t="n">
-        <x:v>0.9096</x:v>
+        <x:v>1.4125</x:v>
       </x:c>
       <x:c r="F8" s="17" t="n">
-        <x:v>1707.882</x:v>
+        <x:v>280.4856</x:v>
       </x:c>
       <x:c r="G8" s="17" t="n">
-        <x:v>119303.2649</x:v>
+        <x:v>20223.5817</x:v>
       </x:c>
       <x:c r="H8" s="17" t="n">
-        <x:v>1816.4902</x:v>
+        <x:v>321.5743</x:v>
       </x:c>
       <x:c r="I8" s="17" t="n">
-        <x:v>122612.6067</x:v>
+        <x:v>21901.305</x:v>
       </x:c>
       <x:c r="J8" s="17" t="n">
-        <x:v>0.0576</x:v>
+        <x:v>0.0778</x:v>
       </x:c>
       <x:c r="K8" s="17" t="n">
-        <x:v>3.7412</x:v>
+        <x:v>4.9902</x:v>
       </x:c>
       <x:c r="L8" s="17" t="n">
-        <x:v>241.1628</x:v>
+        <x:v>323.4511</x:v>
       </x:c>
       <x:c r="M8" s="21" t="s"/>
       <x:c r="N8" s="21" t="s"/>
